--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
@@ -531,7 +531,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06854566666666666</v>
+        <v>0.06854566666666667</v>
       </c>
       <c r="H2">
         <v>0.205637</v>
@@ -561,10 +561,10 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>0.08861147379255555</v>
+        <v>0.08861147379255556</v>
       </c>
       <c r="R2">
-        <v>0.797503264133</v>
+        <v>0.7975032641330001</v>
       </c>
       <c r="S2">
         <v>0.9024289107934966</v>
@@ -593,7 +593,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06854566666666666</v>
+        <v>0.06854566666666667</v>
       </c>
       <c r="H3">
         <v>0.205637</v>
@@ -623,10 +623,10 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q3">
-        <v>0.00958071922422222</v>
+        <v>0.009580719224222222</v>
       </c>
       <c r="R3">
-        <v>0.086226473018</v>
+        <v>0.08622647301800002</v>
       </c>
       <c r="S3">
         <v>0.09757108920650338</v>
